--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
   <si>
     <t>date</t>
   </si>
@@ -450,6 +450,12 @@
   </si>
   <si>
     <t>2022-W37</t>
+  </si>
+  <si>
+    <t>2022-W38</t>
+  </si>
+  <si>
+    <t>2022-W39</t>
   </si>
 </sst>
 </file>
@@ -5753,22 +5759,22 @@
         <v>140</v>
       </c>
       <c r="B129" t="n">
-        <v>575829.0</v>
+        <v>576629.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38600061E8</v>
+        <v>1.38600861E8</v>
       </c>
       <c r="D129" t="n">
-        <v>232728.0</v>
+        <v>232831.0</v>
       </c>
       <c r="E129" t="n">
-        <v>2.8079511E7</v>
+        <v>2.8079614E7</v>
       </c>
       <c r="F129" t="n">
-        <v>0.4042</v>
+        <v>0.4038</v>
       </c>
       <c r="G129" t="n">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="H129" t="e">
         <v>#N/A</v>
@@ -5794,34 +5800,34 @@
         <v>141</v>
       </c>
       <c r="B130" t="n">
-        <v>539534.0</v>
+        <v>540354.0</v>
       </c>
       <c r="C130" t="n">
-        <v>1.39139595E8</v>
+        <v>1.39141215E8</v>
       </c>
       <c r="D130" t="n">
-        <v>205676.0</v>
+        <v>205762.0</v>
       </c>
       <c r="E130" t="n">
-        <v>2.8285187E7</v>
+        <v>2.8285376E7</v>
       </c>
       <c r="F130" t="n">
-        <v>0.3812</v>
+        <v>0.3808</v>
       </c>
       <c r="G130" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="H130" t="n">
-        <v>422062.0</v>
+        <v>422212.0</v>
       </c>
       <c r="I130" t="n">
-        <v>2801353.0</v>
+        <v>2802403.0</v>
       </c>
       <c r="J130" t="n">
-        <v>2743645.0</v>
+        <v>2744695.0</v>
       </c>
       <c r="K130" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="L130" t="e">
         <v>#N/A</v>
@@ -5835,19 +5841,19 @@
         <v>142</v>
       </c>
       <c r="B131" t="n">
-        <v>513303.0</v>
+        <v>512637.0</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39652898E8</v>
+        <v>1.39653852E8</v>
       </c>
       <c r="D131" t="n">
-        <v>176272.0</v>
+        <v>176269.0</v>
       </c>
       <c r="E131" t="n">
-        <v>2.8461459E7</v>
+        <v>2.8461645E7</v>
       </c>
       <c r="F131" t="n">
-        <v>0.3434</v>
+        <v>0.3438</v>
       </c>
       <c r="G131" t="n">
         <v>201.0</v>
@@ -5876,34 +5882,34 @@
         <v>143</v>
       </c>
       <c r="B132" t="n">
-        <v>500261.0</v>
+        <v>501034.0</v>
       </c>
       <c r="C132" t="n">
-        <v>1.40153159E8</v>
+        <v>1.40154886E8</v>
       </c>
       <c r="D132" t="n">
-        <v>161012.0</v>
+        <v>161081.0</v>
       </c>
       <c r="E132" t="n">
-        <v>2.8622471E7</v>
+        <v>2.8622726E7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3219</v>
+        <v>0.3215</v>
       </c>
       <c r="G132" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="H132" t="n">
-        <v>425806.0</v>
+        <v>425956.0</v>
       </c>
       <c r="I132" t="n">
-        <v>2832339.0</v>
+        <v>2833389.0</v>
       </c>
       <c r="J132" t="n">
-        <v>2778391.0</v>
+        <v>2779441.0</v>
       </c>
       <c r="K132" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="L132" t="e">
         <v>#N/A</v>
@@ -5917,22 +5923,22 @@
         <v>144</v>
       </c>
       <c r="B133" t="n">
-        <v>507226.0</v>
+        <v>508022.0</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40660385E8</v>
+        <v>1.40662908E8</v>
       </c>
       <c r="D133" t="n">
-        <v>162052.0</v>
+        <v>162125.0</v>
       </c>
       <c r="E133" t="n">
-        <v>2.8784523E7</v>
+        <v>2.8784851E7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3195</v>
+        <v>0.3191</v>
       </c>
       <c r="G133" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H133" t="e">
         <v>#N/A</v>
@@ -5958,39 +5964,121 @@
         <v>145</v>
       </c>
       <c r="B134" t="n">
-        <v>528896.0</v>
+        <v>531383.0</v>
       </c>
       <c r="C134" t="n">
-        <v>1.41189281E8</v>
+        <v>1.41194291E8</v>
       </c>
       <c r="D134" t="n">
-        <v>179313.0</v>
+        <v>179531.0</v>
       </c>
       <c r="E134" t="n">
-        <v>2.8963836E7</v>
+        <v>2.8964382E7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.339</v>
+        <v>0.3379</v>
       </c>
       <c r="G134" t="n">
-        <v>195.0</v>
+        <v>199.0</v>
       </c>
       <c r="H134" t="n">
-        <v>422383.0</v>
+        <v>423548.0</v>
       </c>
       <c r="I134" t="n">
-        <v>2806860.0</v>
+        <v>2814615.0</v>
       </c>
       <c r="J134" t="n">
-        <v>2747712.0</v>
+        <v>2755467.0</v>
       </c>
       <c r="K134" t="n">
-        <v>175.0</v>
+        <v>179.0</v>
       </c>
       <c r="L134" t="e">
         <v>#N/A</v>
       </c>
       <c r="M134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="s">
+        <v>146</v>
+      </c>
+      <c r="B135" t="n">
+        <v>613333.0</v>
+      </c>
+      <c r="C135" t="n">
+        <v>1.41807624E8</v>
+      </c>
+      <c r="D135" t="n">
+        <v>232224.0</v>
+      </c>
+      <c r="E135" t="n">
+        <v>2.9196606E7</v>
+      </c>
+      <c r="F135" t="n">
+        <v>0.3786</v>
+      </c>
+      <c r="G135" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L135" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M135" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="s">
+        <v>147</v>
+      </c>
+      <c r="B136" t="n">
+        <v>761498.0</v>
+      </c>
+      <c r="C136" t="n">
+        <v>1.42569122E8</v>
+      </c>
+      <c r="D136" t="n">
+        <v>364293.0</v>
+      </c>
+      <c r="E136" t="n">
+        <v>2.9560899E7</v>
+      </c>
+      <c r="F136" t="n">
+        <v>0.4784</v>
+      </c>
+      <c r="G136" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>425616.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2826490.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2778708.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M136" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>date</t>
   </si>
@@ -456,6 +456,12 @@
   </si>
   <si>
     <t>2022-W39</t>
+  </si>
+  <si>
+    <t>2022-W40</t>
+  </si>
+  <si>
+    <t>2022-W41</t>
   </si>
 </sst>
 </file>
@@ -5882,34 +5888,34 @@
         <v>143</v>
       </c>
       <c r="B132" t="n">
-        <v>501034.0</v>
+        <v>501289.0</v>
       </c>
       <c r="C132" t="n">
-        <v>1.40154886E8</v>
+        <v>1.40155141E8</v>
       </c>
       <c r="D132" t="n">
-        <v>161081.0</v>
+        <v>161104.0</v>
       </c>
       <c r="E132" t="n">
-        <v>2.8622726E7</v>
+        <v>2.8622749E7</v>
       </c>
       <c r="F132" t="n">
-        <v>0.3215</v>
+        <v>0.3214</v>
       </c>
       <c r="G132" t="n">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="H132" t="n">
-        <v>425956.0</v>
+        <v>426256.0</v>
       </c>
       <c r="I132" t="n">
-        <v>2833389.0</v>
+        <v>2834889.0</v>
       </c>
       <c r="J132" t="n">
         <v>2779441.0</v>
       </c>
       <c r="K132" t="n">
-        <v>180.0</v>
+        <v>181.0</v>
       </c>
       <c r="L132" t="e">
         <v>#N/A</v>
@@ -5923,22 +5929,22 @@
         <v>144</v>
       </c>
       <c r="B133" t="n">
-        <v>508022.0</v>
+        <v>508265.0</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40662908E8</v>
+        <v>1.40663406E8</v>
       </c>
       <c r="D133" t="n">
-        <v>162125.0</v>
+        <v>162144.0</v>
       </c>
       <c r="E133" t="n">
-        <v>2.8784851E7</v>
+        <v>2.8784893E7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.3191</v>
+        <v>0.319</v>
       </c>
       <c r="G133" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="H133" t="e">
         <v>#N/A</v>
@@ -5964,34 +5970,34 @@
         <v>145</v>
       </c>
       <c r="B134" t="n">
-        <v>531383.0</v>
+        <v>531647.0</v>
       </c>
       <c r="C134" t="n">
-        <v>1.41194291E8</v>
+        <v>1.41195053E8</v>
       </c>
       <c r="D134" t="n">
-        <v>179531.0</v>
+        <v>179566.0</v>
       </c>
       <c r="E134" t="n">
-        <v>2.8964382E7</v>
+        <v>2.8964459E7</v>
       </c>
       <c r="F134" t="n">
-        <v>0.3379</v>
+        <v>0.3378</v>
       </c>
       <c r="G134" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H134" t="n">
-        <v>423548.0</v>
+        <v>423848.0</v>
       </c>
       <c r="I134" t="n">
-        <v>2814615.0</v>
+        <v>2816115.0</v>
       </c>
       <c r="J134" t="n">
         <v>2755467.0</v>
       </c>
       <c r="K134" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="L134" t="e">
         <v>#N/A</v>
@@ -6005,22 +6011,22 @@
         <v>146</v>
       </c>
       <c r="B135" t="n">
-        <v>613333.0</v>
+        <v>613682.0</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41807624E8</v>
+        <v>1.41808735E8</v>
       </c>
       <c r="D135" t="n">
-        <v>232224.0</v>
+        <v>232317.0</v>
       </c>
       <c r="E135" t="n">
-        <v>2.9196606E7</v>
+        <v>2.9196776E7</v>
       </c>
       <c r="F135" t="n">
         <v>0.3786</v>
       </c>
       <c r="G135" t="n">
-        <v>196.0</v>
+        <v>198.0</v>
       </c>
       <c r="H135" t="e">
         <v>#N/A</v>
@@ -6046,39 +6052,121 @@
         <v>147</v>
       </c>
       <c r="B136" t="n">
-        <v>761498.0</v>
+        <v>763977.0</v>
       </c>
       <c r="C136" t="n">
-        <v>1.42569122E8</v>
+        <v>1.42572712E8</v>
       </c>
       <c r="D136" t="n">
-        <v>364293.0</v>
+        <v>364735.0</v>
       </c>
       <c r="E136" t="n">
-        <v>2.9560899E7</v>
+        <v>2.9561511E7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4784</v>
+        <v>0.4774</v>
       </c>
       <c r="G136" t="n">
+        <v>200.0</v>
+      </c>
+      <c r="H136" t="n">
+        <v>428681.0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>2841845.0</v>
+      </c>
+      <c r="J136" t="n">
+        <v>2790563.0</v>
+      </c>
+      <c r="K136" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="L136" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M136" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="s">
+        <v>148</v>
+      </c>
+      <c r="B137" t="n">
+        <v>861314.0</v>
+      </c>
+      <c r="C137" t="n">
+        <v>1.43434026E8</v>
+      </c>
+      <c r="D137" t="n">
+        <v>471236.0</v>
+      </c>
+      <c r="E137" t="n">
+        <v>3.0032747E7</v>
+      </c>
+      <c r="F137" t="n">
+        <v>0.5471</v>
+      </c>
+      <c r="G137" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L137" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M137" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="s">
+        <v>149</v>
+      </c>
+      <c r="B138" t="n">
+        <v>895221.0</v>
+      </c>
+      <c r="C138" t="n">
+        <v>1.44329247E8</v>
+      </c>
+      <c r="D138" t="n">
+        <v>466138.0</v>
+      </c>
+      <c r="E138" t="n">
+        <v>3.0498885E7</v>
+      </c>
+      <c r="F138" t="n">
+        <v>0.5207</v>
+      </c>
+      <c r="G138" t="n">
         <v>194.0</v>
       </c>
-      <c r="H136" t="n">
-        <v>425616.0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>2826490.0</v>
-      </c>
-      <c r="J136" t="n">
-        <v>2778708.0</v>
-      </c>
-      <c r="K136" t="n">
-        <v>173.0</v>
-      </c>
-      <c r="L136" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M136" t="e">
+      <c r="H138" t="n">
+        <v>423760.0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>2802785.0</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2766053.0</v>
+      </c>
+      <c r="K138" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="L138" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M138" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>date</t>
   </si>
@@ -462,6 +462,12 @@
   </si>
   <si>
     <t>2022-W41</t>
+  </si>
+  <si>
+    <t>2022-W42</t>
+  </si>
+  <si>
+    <t>2022-W43</t>
   </si>
 </sst>
 </file>
@@ -6011,22 +6017,22 @@
         <v>146</v>
       </c>
       <c r="B135" t="n">
-        <v>613682.0</v>
+        <v>620264.0</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41808735E8</v>
+        <v>1.41815317E8</v>
       </c>
       <c r="D135" t="n">
-        <v>232317.0</v>
+        <v>232751.0</v>
       </c>
       <c r="E135" t="n">
-        <v>2.9196776E7</v>
+        <v>2.919721E7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3786</v>
+        <v>0.3752</v>
       </c>
       <c r="G135" t="n">
-        <v>198.0</v>
+        <v>199.0</v>
       </c>
       <c r="H135" t="e">
         <v>#N/A</v>
@@ -6052,34 +6058,34 @@
         <v>147</v>
       </c>
       <c r="B136" t="n">
-        <v>763977.0</v>
+        <v>771001.0</v>
       </c>
       <c r="C136" t="n">
-        <v>1.42572712E8</v>
+        <v>1.42586318E8</v>
       </c>
       <c r="D136" t="n">
-        <v>364735.0</v>
+        <v>365336.0</v>
       </c>
       <c r="E136" t="n">
-        <v>2.9561511E7</v>
+        <v>2.9562546E7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4774</v>
+        <v>0.4738</v>
       </c>
       <c r="G136" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="H136" t="n">
-        <v>428681.0</v>
+        <v>430681.0</v>
       </c>
       <c r="I136" t="n">
-        <v>2841845.0</v>
+        <v>2855845.0</v>
       </c>
       <c r="J136" t="n">
-        <v>2790563.0</v>
+        <v>2804563.0</v>
       </c>
       <c r="K136" t="n">
-        <v>179.0</v>
+        <v>180.0</v>
       </c>
       <c r="L136" t="e">
         <v>#N/A</v>
@@ -6093,22 +6099,22 @@
         <v>148</v>
       </c>
       <c r="B137" t="n">
-        <v>861314.0</v>
+        <v>867829.0</v>
       </c>
       <c r="C137" t="n">
-        <v>1.43434026E8</v>
+        <v>1.43454147E8</v>
       </c>
       <c r="D137" t="n">
-        <v>471236.0</v>
+        <v>472211.0</v>
       </c>
       <c r="E137" t="n">
-        <v>3.0032747E7</v>
+        <v>3.0034757E7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5471</v>
+        <v>0.5441</v>
       </c>
       <c r="G137" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H137" t="e">
         <v>#N/A</v>
@@ -6134,39 +6140,121 @@
         <v>149</v>
       </c>
       <c r="B138" t="n">
-        <v>895221.0</v>
+        <v>906295.0</v>
       </c>
       <c r="C138" t="n">
-        <v>1.44329247E8</v>
+        <v>1.44360442E8</v>
       </c>
       <c r="D138" t="n">
-        <v>466138.0</v>
+        <v>467886.0</v>
       </c>
       <c r="E138" t="n">
-        <v>3.0498885E7</v>
+        <v>3.0502643E7</v>
       </c>
       <c r="F138" t="n">
-        <v>0.5207</v>
+        <v>0.5163</v>
       </c>
       <c r="G138" t="n">
-        <v>194.0</v>
+        <v>197.0</v>
       </c>
       <c r="H138" t="n">
-        <v>423760.0</v>
+        <v>427260.0</v>
       </c>
       <c r="I138" t="n">
-        <v>2802785.0</v>
+        <v>2826685.0</v>
       </c>
       <c r="J138" t="n">
-        <v>2766053.0</v>
+        <v>2780053.0</v>
       </c>
       <c r="K138" t="n">
-        <v>175.0</v>
+        <v>178.0</v>
       </c>
       <c r="L138" t="e">
         <v>#N/A</v>
       </c>
       <c r="M138" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="s">
+        <v>150</v>
+      </c>
+      <c r="B139" t="n">
+        <v>810980.0</v>
+      </c>
+      <c r="C139" t="n">
+        <v>1.45171422E8</v>
+      </c>
+      <c r="D139" t="n">
+        <v>392851.0</v>
+      </c>
+      <c r="E139" t="n">
+        <v>3.0895494E7</v>
+      </c>
+      <c r="F139" t="n">
+        <v>0.4844</v>
+      </c>
+      <c r="G139" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L139" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M139" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="s">
+        <v>151</v>
+      </c>
+      <c r="B140" t="n">
+        <v>637405.0</v>
+      </c>
+      <c r="C140" t="n">
+        <v>1.45808827E8</v>
+      </c>
+      <c r="D140" t="n">
+        <v>272581.0</v>
+      </c>
+      <c r="E140" t="n">
+        <v>3.1168075E7</v>
+      </c>
+      <c r="F140" t="n">
+        <v>0.4276</v>
+      </c>
+      <c r="G140" t="n">
+        <v>195.0</v>
+      </c>
+      <c r="H140" t="n">
+        <v>417910.0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>2773987.0</v>
+      </c>
+      <c r="J140" t="n">
+        <v>2717764.0</v>
+      </c>
+      <c r="K140" t="n">
+        <v>173.0</v>
+      </c>
+      <c r="L140" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M140" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
   <si>
     <t>date</t>
   </si>
@@ -468,6 +468,12 @@
   </si>
   <si>
     <t>2022-W43</t>
+  </si>
+  <si>
+    <t>2022-W44</t>
+  </si>
+  <si>
+    <t>2022-W45</t>
   </si>
 </sst>
 </file>
@@ -5197,22 +5203,22 @@
         <v>126</v>
       </c>
       <c r="B115" t="n">
-        <v>895976.0</v>
+        <v>896054.0</v>
       </c>
       <c r="C115" t="n">
-        <v>1.28149724E8</v>
+        <v>1.28149802E8</v>
       </c>
       <c r="D115" t="n">
-        <v>368520.0</v>
+        <v>368548.0</v>
       </c>
       <c r="E115" t="n">
-        <v>2.3331736E7</v>
+        <v>2.3331764E7</v>
       </c>
       <c r="F115" t="n">
         <v>0.4113</v>
       </c>
       <c r="G115" t="n">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="H115" t="e">
         <v>#N/A</v>
@@ -5238,22 +5244,22 @@
         <v>127</v>
       </c>
       <c r="B116" t="n">
-        <v>804763.0</v>
+        <v>804830.0</v>
       </c>
       <c r="C116" t="n">
-        <v>1.28954487E8</v>
+        <v>1.28954632E8</v>
       </c>
       <c r="D116" t="n">
-        <v>307490.0</v>
+        <v>307510.0</v>
       </c>
       <c r="E116" t="n">
-        <v>2.3639226E7</v>
+        <v>2.3639274E7</v>
       </c>
       <c r="F116" t="n">
         <v>0.3821</v>
       </c>
       <c r="G116" t="n">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="H116" t="n">
         <v>469183.0</v>
@@ -5279,22 +5285,22 @@
         <v>128</v>
       </c>
       <c r="B117" t="n">
-        <v>680377.0</v>
+        <v>680440.0</v>
       </c>
       <c r="C117" t="n">
-        <v>1.29634864E8</v>
+        <v>1.29635072E8</v>
       </c>
       <c r="D117" t="n">
-        <v>218400.0</v>
+        <v>218415.0</v>
       </c>
       <c r="E117" t="n">
-        <v>2.3857626E7</v>
+        <v>2.3857689E7</v>
       </c>
       <c r="F117" t="n">
         <v>0.321</v>
       </c>
       <c r="G117" t="n">
-        <v>209.0</v>
+        <v>210.0</v>
       </c>
       <c r="H117" t="e">
         <v>#N/A</v>
@@ -5320,22 +5326,22 @@
         <v>129</v>
       </c>
       <c r="B118" t="n">
-        <v>506089.0</v>
+        <v>506133.0</v>
       </c>
       <c r="C118" t="n">
-        <v>1.30140953E8</v>
+        <v>1.30141205E8</v>
       </c>
       <c r="D118" t="n">
-        <v>143827.0</v>
+        <v>143841.0</v>
       </c>
       <c r="E118" t="n">
-        <v>2.4001453E7</v>
+        <v>2.400153E7</v>
       </c>
       <c r="F118" t="n">
         <v>0.2842</v>
       </c>
       <c r="G118" t="n">
-        <v>210.0</v>
+        <v>211.0</v>
       </c>
       <c r="H118" t="n">
         <v>472533.0</v>
@@ -5361,22 +5367,22 @@
         <v>130</v>
       </c>
       <c r="B119" t="n">
-        <v>603245.0</v>
+        <v>603287.0</v>
       </c>
       <c r="C119" t="n">
-        <v>1.30744198E8</v>
+        <v>1.30744492E8</v>
       </c>
       <c r="D119" t="n">
-        <v>196298.0</v>
+        <v>196318.0</v>
       </c>
       <c r="E119" t="n">
-        <v>2.4197751E7</v>
+        <v>2.4197848E7</v>
       </c>
       <c r="F119" t="n">
         <v>0.3254</v>
       </c>
       <c r="G119" t="n">
-        <v>207.0</v>
+        <v>208.0</v>
       </c>
       <c r="H119" t="e">
         <v>#N/A</v>
@@ -5402,22 +5408,22 @@
         <v>131</v>
       </c>
       <c r="B120" t="n">
-        <v>628163.0</v>
+        <v>628225.0</v>
       </c>
       <c r="C120" t="n">
-        <v>1.31372361E8</v>
+        <v>1.31372717E8</v>
       </c>
       <c r="D120" t="n">
-        <v>259991.0</v>
+        <v>260044.0</v>
       </c>
       <c r="E120" t="n">
-        <v>2.4457742E7</v>
+        <v>2.4457892E7</v>
       </c>
       <c r="F120" t="n">
         <v>0.4139</v>
       </c>
       <c r="G120" t="n">
-        <v>205.0</v>
+        <v>206.0</v>
       </c>
       <c r="H120" t="n">
         <v>468733.0</v>
@@ -5443,22 +5449,22 @@
         <v>132</v>
       </c>
       <c r="B121" t="n">
-        <v>709747.0</v>
+        <v>709817.0</v>
       </c>
       <c r="C121" t="n">
-        <v>1.32082108E8</v>
+        <v>1.32082534E8</v>
       </c>
       <c r="D121" t="n">
-        <v>318154.0</v>
+        <v>318213.0</v>
       </c>
       <c r="E121" t="n">
-        <v>2.4775896E7</v>
+        <v>2.4776105E7</v>
       </c>
       <c r="F121" t="n">
         <v>0.4483</v>
       </c>
       <c r="G121" t="n">
-        <v>206.0</v>
+        <v>207.0</v>
       </c>
       <c r="H121" t="e">
         <v>#N/A</v>
@@ -5484,22 +5490,22 @@
         <v>133</v>
       </c>
       <c r="B122" t="n">
-        <v>889057.0</v>
+        <v>889100.0</v>
       </c>
       <c r="C122" t="n">
-        <v>1.32971165E8</v>
+        <v>1.32971634E8</v>
       </c>
       <c r="D122" t="n">
-        <v>443311.0</v>
+        <v>443342.0</v>
       </c>
       <c r="E122" t="n">
-        <v>2.5219207E7</v>
+        <v>2.5219447E7</v>
       </c>
       <c r="F122" t="n">
         <v>0.4986</v>
       </c>
       <c r="G122" t="n">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="H122" t="n">
         <v>462954.0</v>
@@ -5525,22 +5531,22 @@
         <v>134</v>
       </c>
       <c r="B123" t="n">
-        <v>899891.0</v>
+        <v>899961.0</v>
       </c>
       <c r="C123" t="n">
-        <v>1.33871056E8</v>
+        <v>1.33871595E8</v>
       </c>
       <c r="D123" t="n">
-        <v>475652.0</v>
+        <v>475710.0</v>
       </c>
       <c r="E123" t="n">
-        <v>2.5694859E7</v>
+        <v>2.5695157E7</v>
       </c>
       <c r="F123" t="n">
         <v>0.5286</v>
       </c>
       <c r="G123" t="n">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="H123" t="e">
         <v>#N/A</v>
@@ -5566,22 +5572,22 @@
         <v>135</v>
       </c>
       <c r="B124" t="n">
-        <v>926173.0</v>
+        <v>926260.0</v>
       </c>
       <c r="C124" t="n">
-        <v>1.34797229E8</v>
+        <v>1.34797855E8</v>
       </c>
       <c r="D124" t="n">
-        <v>493776.0</v>
+        <v>493816.0</v>
       </c>
       <c r="E124" t="n">
-        <v>2.6188635E7</v>
+        <v>2.6188973E7</v>
       </c>
       <c r="F124" t="n">
         <v>0.5331</v>
       </c>
       <c r="G124" t="n">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="H124" t="n">
         <v>462843.0</v>
@@ -5607,22 +5613,22 @@
         <v>136</v>
       </c>
       <c r="B125" t="n">
-        <v>970170.0</v>
+        <v>970214.0</v>
       </c>
       <c r="C125" t="n">
-        <v>1.35767399E8</v>
+        <v>1.35768069E8</v>
       </c>
       <c r="D125" t="n">
-        <v>535995.0</v>
+        <v>536032.0</v>
       </c>
       <c r="E125" t="n">
-        <v>2.672463E7</v>
+        <v>2.6725005E7</v>
       </c>
       <c r="F125" t="n">
         <v>0.5525</v>
       </c>
       <c r="G125" t="n">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="H125" t="e">
         <v>#N/A</v>
@@ -5648,22 +5654,22 @@
         <v>137</v>
       </c>
       <c r="B126" t="n">
-        <v>893014.0</v>
+        <v>893061.0</v>
       </c>
       <c r="C126" t="n">
-        <v>1.36660413E8</v>
+        <v>1.3666113E8</v>
       </c>
       <c r="D126" t="n">
-        <v>482280.0</v>
+        <v>482317.0</v>
       </c>
       <c r="E126" t="n">
-        <v>2.720691E7</v>
+        <v>2.7207322E7</v>
       </c>
       <c r="F126" t="n">
         <v>0.5401</v>
       </c>
       <c r="G126" t="n">
-        <v>204.0</v>
+        <v>205.0</v>
       </c>
       <c r="H126" t="n">
         <v>463733.0</v>
@@ -5689,22 +5695,22 @@
         <v>138</v>
       </c>
       <c r="B127" t="n">
-        <v>743040.0</v>
+        <v>743105.0</v>
       </c>
       <c r="C127" t="n">
-        <v>1.37403453E8</v>
+        <v>1.37404235E8</v>
       </c>
       <c r="D127" t="n">
-        <v>364483.0</v>
+        <v>364544.0</v>
       </c>
       <c r="E127" t="n">
-        <v>2.7571393E7</v>
+        <v>2.7571866E7</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4905</v>
+        <v>0.4906</v>
       </c>
       <c r="G127" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H127" t="e">
         <v>#N/A</v>
@@ -5730,22 +5736,22 @@
         <v>139</v>
       </c>
       <c r="B128" t="n">
-        <v>620779.0</v>
+        <v>620825.0</v>
       </c>
       <c r="C128" t="n">
-        <v>1.38024232E8</v>
+        <v>1.3802506E8</v>
       </c>
       <c r="D128" t="n">
-        <v>275390.0</v>
+        <v>275433.0</v>
       </c>
       <c r="E128" t="n">
-        <v>2.7846783E7</v>
+        <v>2.7847299E7</v>
       </c>
       <c r="F128" t="n">
-        <v>0.4436</v>
+        <v>0.4437</v>
       </c>
       <c r="G128" t="n">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="H128" t="n">
         <v>420812.0</v>
@@ -5771,22 +5777,22 @@
         <v>140</v>
       </c>
       <c r="B129" t="n">
-        <v>576629.0</v>
+        <v>576680.0</v>
       </c>
       <c r="C129" t="n">
-        <v>1.38600861E8</v>
+        <v>1.3860174E8</v>
       </c>
       <c r="D129" t="n">
-        <v>232831.0</v>
+        <v>232879.0</v>
       </c>
       <c r="E129" t="n">
-        <v>2.8079614E7</v>
+        <v>2.8080178E7</v>
       </c>
       <c r="F129" t="n">
         <v>0.4038</v>
       </c>
       <c r="G129" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H129" t="e">
         <v>#N/A</v>
@@ -5812,22 +5818,22 @@
         <v>141</v>
       </c>
       <c r="B130" t="n">
-        <v>540354.0</v>
+        <v>540396.0</v>
       </c>
       <c r="C130" t="n">
-        <v>1.39141215E8</v>
+        <v>1.39142136E8</v>
       </c>
       <c r="D130" t="n">
-        <v>205762.0</v>
+        <v>205798.0</v>
       </c>
       <c r="E130" t="n">
-        <v>2.8285376E7</v>
+        <v>2.8285976E7</v>
       </c>
       <c r="F130" t="n">
         <v>0.3808</v>
       </c>
       <c r="G130" t="n">
-        <v>202.0</v>
+        <v>203.0</v>
       </c>
       <c r="H130" t="n">
         <v>422212.0</v>
@@ -5856,13 +5862,13 @@
         <v>512637.0</v>
       </c>
       <c r="C131" t="n">
-        <v>1.39653852E8</v>
+        <v>1.39654773E8</v>
       </c>
       <c r="D131" t="n">
         <v>176269.0</v>
       </c>
       <c r="E131" t="n">
-        <v>2.8461645E7</v>
+        <v>2.8462245E7</v>
       </c>
       <c r="F131" t="n">
         <v>0.3438</v>
@@ -5894,22 +5900,22 @@
         <v>143</v>
       </c>
       <c r="B132" t="n">
-        <v>501289.0</v>
+        <v>501327.0</v>
       </c>
       <c r="C132" t="n">
-        <v>1.40155141E8</v>
+        <v>1.401561E8</v>
       </c>
       <c r="D132" t="n">
-        <v>161104.0</v>
+        <v>161140.0</v>
       </c>
       <c r="E132" t="n">
-        <v>2.8622749E7</v>
+        <v>2.8623385E7</v>
       </c>
       <c r="F132" t="n">
         <v>0.3214</v>
       </c>
       <c r="G132" t="n">
-        <v>203.0</v>
+        <v>204.0</v>
       </c>
       <c r="H132" t="n">
         <v>426256.0</v>
@@ -5935,22 +5941,22 @@
         <v>144</v>
       </c>
       <c r="B133" t="n">
-        <v>508265.0</v>
+        <v>508313.0</v>
       </c>
       <c r="C133" t="n">
-        <v>1.40663406E8</v>
+        <v>1.40664413E8</v>
       </c>
       <c r="D133" t="n">
-        <v>162144.0</v>
+        <v>162184.0</v>
       </c>
       <c r="E133" t="n">
-        <v>2.8784893E7</v>
+        <v>2.8785569E7</v>
       </c>
       <c r="F133" t="n">
-        <v>0.319</v>
+        <v>0.3191</v>
       </c>
       <c r="G133" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="H133" t="e">
         <v>#N/A</v>
@@ -5976,22 +5982,22 @@
         <v>145</v>
       </c>
       <c r="B134" t="n">
-        <v>531647.0</v>
+        <v>531681.0</v>
       </c>
       <c r="C134" t="n">
-        <v>1.41195053E8</v>
+        <v>1.41196094E8</v>
       </c>
       <c r="D134" t="n">
-        <v>179566.0</v>
+        <v>179595.0</v>
       </c>
       <c r="E134" t="n">
-        <v>2.8964459E7</v>
+        <v>2.8965164E7</v>
       </c>
       <c r="F134" t="n">
         <v>0.3378</v>
       </c>
       <c r="G134" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="H134" t="n">
         <v>423848.0</v>
@@ -6017,22 +6023,22 @@
         <v>146</v>
       </c>
       <c r="B135" t="n">
-        <v>620264.0</v>
+        <v>620302.0</v>
       </c>
       <c r="C135" t="n">
-        <v>1.41815317E8</v>
+        <v>1.41816396E8</v>
       </c>
       <c r="D135" t="n">
-        <v>232751.0</v>
+        <v>232784.0</v>
       </c>
       <c r="E135" t="n">
-        <v>2.919721E7</v>
+        <v>2.9197948E7</v>
       </c>
       <c r="F135" t="n">
-        <v>0.3752</v>
+        <v>0.3753</v>
       </c>
       <c r="G135" t="n">
-        <v>199.0</v>
+        <v>200.0</v>
       </c>
       <c r="H135" t="e">
         <v>#N/A</v>
@@ -6058,22 +6064,22 @@
         <v>147</v>
       </c>
       <c r="B136" t="n">
-        <v>771001.0</v>
+        <v>771107.0</v>
       </c>
       <c r="C136" t="n">
-        <v>1.42586318E8</v>
+        <v>1.42587503E8</v>
       </c>
       <c r="D136" t="n">
-        <v>365336.0</v>
+        <v>365430.0</v>
       </c>
       <c r="E136" t="n">
-        <v>2.9562546E7</v>
+        <v>2.9563378E7</v>
       </c>
       <c r="F136" t="n">
-        <v>0.4738</v>
+        <v>0.4739</v>
       </c>
       <c r="G136" t="n">
-        <v>201.0</v>
+        <v>202.0</v>
       </c>
       <c r="H136" t="n">
         <v>430681.0</v>
@@ -6099,22 +6105,22 @@
         <v>148</v>
       </c>
       <c r="B137" t="n">
-        <v>867829.0</v>
+        <v>867913.0</v>
       </c>
       <c r="C137" t="n">
-        <v>1.43454147E8</v>
+        <v>1.43455416E8</v>
       </c>
       <c r="D137" t="n">
-        <v>472211.0</v>
+        <v>472279.0</v>
       </c>
       <c r="E137" t="n">
-        <v>3.0034757E7</v>
+        <v>3.0035657E7</v>
       </c>
       <c r="F137" t="n">
-        <v>0.5441</v>
+        <v>0.5442</v>
       </c>
       <c r="G137" t="n">
-        <v>200.0</v>
+        <v>201.0</v>
       </c>
       <c r="H137" t="e">
         <v>#N/A</v>
@@ -6140,22 +6146,22 @@
         <v>149</v>
       </c>
       <c r="B138" t="n">
-        <v>906295.0</v>
+        <v>906382.0</v>
       </c>
       <c r="C138" t="n">
-        <v>1.44360442E8</v>
+        <v>1.44361798E8</v>
       </c>
       <c r="D138" t="n">
-        <v>467886.0</v>
+        <v>467963.0</v>
       </c>
       <c r="E138" t="n">
-        <v>3.0502643E7</v>
+        <v>3.050362E7</v>
       </c>
       <c r="F138" t="n">
         <v>0.5163</v>
       </c>
       <c r="G138" t="n">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="H138" t="n">
         <v>427260.0</v>
@@ -6181,22 +6187,22 @@
         <v>150</v>
       </c>
       <c r="B139" t="n">
-        <v>810980.0</v>
+        <v>811081.0</v>
       </c>
       <c r="C139" t="n">
-        <v>1.45171422E8</v>
+        <v>1.45172879E8</v>
       </c>
       <c r="D139" t="n">
-        <v>392851.0</v>
+        <v>392942.0</v>
       </c>
       <c r="E139" t="n">
-        <v>3.0895494E7</v>
+        <v>3.0896562E7</v>
       </c>
       <c r="F139" t="n">
-        <v>0.4844</v>
+        <v>0.4845</v>
       </c>
       <c r="G139" t="n">
-        <v>196.0</v>
+        <v>197.0</v>
       </c>
       <c r="H139" t="e">
         <v>#N/A</v>
@@ -6222,39 +6228,121 @@
         <v>151</v>
       </c>
       <c r="B140" t="n">
-        <v>637405.0</v>
+        <v>649400.0</v>
       </c>
       <c r="C140" t="n">
-        <v>1.45808827E8</v>
+        <v>1.45822279E8</v>
       </c>
       <c r="D140" t="n">
-        <v>272581.0</v>
+        <v>274312.0</v>
       </c>
       <c r="E140" t="n">
-        <v>3.1168075E7</v>
+        <v>3.1170874E7</v>
       </c>
       <c r="F140" t="n">
-        <v>0.4276</v>
+        <v>0.4224</v>
       </c>
       <c r="G140" t="n">
-        <v>195.0</v>
+        <v>201.0</v>
       </c>
       <c r="H140" t="n">
-        <v>417910.0</v>
+        <v>422775.0</v>
       </c>
       <c r="I140" t="n">
-        <v>2773987.0</v>
+        <v>2807442.0</v>
       </c>
       <c r="J140" t="n">
-        <v>2717764.0</v>
+        <v>2741319.0</v>
       </c>
       <c r="K140" t="n">
-        <v>173.0</v>
+        <v>178.0</v>
       </c>
       <c r="L140" t="e">
         <v>#N/A</v>
       </c>
       <c r="M140" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="s">
+        <v>152</v>
+      </c>
+      <c r="B141" t="n">
+        <v>512326.0</v>
+      </c>
+      <c r="C141" t="n">
+        <v>1.46334605E8</v>
+      </c>
+      <c r="D141" t="n">
+        <v>180532.0</v>
+      </c>
+      <c r="E141" t="n">
+        <v>3.1351406E7</v>
+      </c>
+      <c r="F141" t="n">
+        <v>0.3524</v>
+      </c>
+      <c r="G141" t="n">
+        <v>199.0</v>
+      </c>
+      <c r="H141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L141" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M141" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="s">
+        <v>153</v>
+      </c>
+      <c r="B142" t="n">
+        <v>509257.0</v>
+      </c>
+      <c r="C142" t="n">
+        <v>1.46843862E8</v>
+      </c>
+      <c r="D142" t="n">
+        <v>151037.0</v>
+      </c>
+      <c r="E142" t="n">
+        <v>3.1502443E7</v>
+      </c>
+      <c r="F142" t="n">
+        <v>0.2966</v>
+      </c>
+      <c r="G142" t="n">
+        <v>196.0</v>
+      </c>
+      <c r="H142" t="n">
+        <v>421435.0</v>
+      </c>
+      <c r="I142" t="n">
+        <v>2802746.0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2735128.0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>176.0</v>
+      </c>
+      <c r="L142" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M142" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t>date</t>
   </si>
@@ -474,6 +474,12 @@
   </si>
   <si>
     <t>2022-W45</t>
+  </si>
+  <si>
+    <t>2022-W46</t>
+  </si>
+  <si>
+    <t>2022-W47</t>
   </si>
 </sst>
 </file>
@@ -6310,39 +6316,121 @@
         <v>153</v>
       </c>
       <c r="B142" t="n">
-        <v>509257.0</v>
+        <v>517072.0</v>
       </c>
       <c r="C142" t="n">
-        <v>1.46843862E8</v>
+        <v>1.46851677E8</v>
       </c>
       <c r="D142" t="n">
-        <v>151037.0</v>
+        <v>151833.0</v>
       </c>
       <c r="E142" t="n">
-        <v>3.1502443E7</v>
+        <v>3.1503239E7</v>
       </c>
       <c r="F142" t="n">
-        <v>0.2966</v>
+        <v>0.2936</v>
       </c>
       <c r="G142" t="n">
-        <v>196.0</v>
+        <v>200.0</v>
       </c>
       <c r="H142" t="n">
-        <v>421435.0</v>
+        <v>424050.0</v>
       </c>
       <c r="I142" t="n">
-        <v>2802746.0</v>
+        <v>2820451.0</v>
       </c>
       <c r="J142" t="n">
-        <v>2735128.0</v>
+        <v>2751333.0</v>
       </c>
       <c r="K142" t="n">
-        <v>176.0</v>
+        <v>180.0</v>
       </c>
       <c r="L142" t="e">
         <v>#N/A</v>
       </c>
       <c r="M142" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="s">
+        <v>154</v>
+      </c>
+      <c r="B143" t="n">
+        <v>494351.0</v>
+      </c>
+      <c r="C143" t="n">
+        <v>1.47346028E8</v>
+      </c>
+      <c r="D143" t="n">
+        <v>131982.0</v>
+      </c>
+      <c r="E143" t="n">
+        <v>3.1635221E7</v>
+      </c>
+      <c r="F143" t="n">
+        <v>0.267</v>
+      </c>
+      <c r="G143" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L143" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M143" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="s">
+        <v>155</v>
+      </c>
+      <c r="B144" t="n">
+        <v>492319.0</v>
+      </c>
+      <c r="C144" t="n">
+        <v>1.47838347E8</v>
+      </c>
+      <c r="D144" t="n">
+        <v>133967.0</v>
+      </c>
+      <c r="E144" t="n">
+        <v>3.1769188E7</v>
+      </c>
+      <c r="F144" t="n">
+        <v>0.2721</v>
+      </c>
+      <c r="G144" t="n">
+        <v>194.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>418423.0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2783832.0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2719384.0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>175.0</v>
+      </c>
+      <c r="L144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M144" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>date</t>
   </si>
@@ -480,6 +480,12 @@
   </si>
   <si>
     <t>2022-W47</t>
+  </si>
+  <si>
+    <t>2022-W48</t>
+  </si>
+  <si>
+    <t>2022-W49</t>
   </si>
 </sst>
 </file>
@@ -6357,22 +6363,22 @@
         <v>154</v>
       </c>
       <c r="B143" t="n">
-        <v>494351.0</v>
+        <v>494504.0</v>
       </c>
       <c r="C143" t="n">
-        <v>1.47346028E8</v>
+        <v>1.47346181E8</v>
       </c>
       <c r="D143" t="n">
-        <v>131982.0</v>
+        <v>132017.0</v>
       </c>
       <c r="E143" t="n">
-        <v>3.1635221E7</v>
+        <v>3.1635256E7</v>
       </c>
       <c r="F143" t="n">
         <v>0.267</v>
       </c>
       <c r="G143" t="n">
-        <v>197.0</v>
+        <v>198.0</v>
       </c>
       <c r="H143" t="e">
         <v>#N/A</v>
@@ -6398,39 +6404,121 @@
         <v>155</v>
       </c>
       <c r="B144" t="n">
-        <v>492319.0</v>
+        <v>492954.0</v>
       </c>
       <c r="C144" t="n">
-        <v>1.47838347E8</v>
+        <v>1.47839135E8</v>
       </c>
       <c r="D144" t="n">
-        <v>133967.0</v>
+        <v>134061.0</v>
       </c>
       <c r="E144" t="n">
-        <v>3.1769188E7</v>
+        <v>3.1769317E7</v>
       </c>
       <c r="F144" t="n">
-        <v>0.2721</v>
+        <v>0.272</v>
       </c>
       <c r="G144" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H144" t="n">
+        <v>419388.0</v>
+      </c>
+      <c r="I144" t="n">
+        <v>2787987.0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>2722039.0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>178.0</v>
+      </c>
+      <c r="L144" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M144" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="s">
+        <v>156</v>
+      </c>
+      <c r="B145" t="n">
+        <v>501658.0</v>
+      </c>
+      <c r="C145" t="n">
+        <v>1.48340793E8</v>
+      </c>
+      <c r="D145" t="n">
+        <v>145144.0</v>
+      </c>
+      <c r="E145" t="n">
+        <v>3.1914461E7</v>
+      </c>
+      <c r="F145" t="n">
+        <v>0.2893</v>
+      </c>
+      <c r="G145" t="n">
+        <v>197.0</v>
+      </c>
+      <c r="H145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L145" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M145" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="s">
+        <v>157</v>
+      </c>
+      <c r="B146" t="n">
+        <v>509358.0</v>
+      </c>
+      <c r="C146" t="n">
+        <v>1.48850151E8</v>
+      </c>
+      <c r="D146" t="n">
+        <v>156998.0</v>
+      </c>
+      <c r="E146" t="n">
+        <v>3.2071459E7</v>
+      </c>
+      <c r="F146" t="n">
+        <v>0.3082</v>
+      </c>
+      <c r="G146" t="n">
         <v>194.0</v>
       </c>
-      <c r="H144" t="n">
-        <v>418423.0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>2783832.0</v>
-      </c>
-      <c r="J144" t="n">
-        <v>2719384.0</v>
-      </c>
-      <c r="K144" t="n">
-        <v>175.0</v>
-      </c>
-      <c r="L144" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M144" t="e">
+      <c r="H146" t="n">
+        <v>415509.0</v>
+      </c>
+      <c r="I146" t="n">
+        <v>2748540.0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2694812.0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>174.0</v>
+      </c>
+      <c r="L146" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M146" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>date</t>
   </si>
@@ -486,6 +486,21 @@
   </si>
   <si>
     <t>2022-W49</t>
+  </si>
+  <si>
+    <t>2022-W50</t>
+  </si>
+  <si>
+    <t>2022-W51</t>
+  </si>
+  <si>
+    <t>2022-W52</t>
+  </si>
+  <si>
+    <t>2023-W1</t>
+  </si>
+  <si>
+    <t>2023-W2</t>
   </si>
 </sst>
 </file>
@@ -6445,22 +6460,22 @@
         <v>156</v>
       </c>
       <c r="B145" t="n">
-        <v>501658.0</v>
+        <v>505273.0</v>
       </c>
       <c r="C145" t="n">
-        <v>1.48340793E8</v>
+        <v>1.48344408E8</v>
       </c>
       <c r="D145" t="n">
-        <v>145144.0</v>
+        <v>145942.0</v>
       </c>
       <c r="E145" t="n">
-        <v>3.1914461E7</v>
+        <v>3.1915259E7</v>
       </c>
       <c r="F145" t="n">
-        <v>0.2893</v>
+        <v>0.2888</v>
       </c>
       <c r="G145" t="n">
-        <v>197.0</v>
+        <v>199.0</v>
       </c>
       <c r="H145" t="e">
         <v>#N/A</v>
@@ -6486,39 +6501,244 @@
         <v>157</v>
       </c>
       <c r="B146" t="n">
-        <v>509358.0</v>
+        <v>513378.0</v>
       </c>
       <c r="C146" t="n">
-        <v>1.48850151E8</v>
+        <v>1.48857786E8</v>
       </c>
       <c r="D146" t="n">
-        <v>156998.0</v>
+        <v>157865.0</v>
       </c>
       <c r="E146" t="n">
-        <v>3.2071459E7</v>
+        <v>3.2073124E7</v>
       </c>
       <c r="F146" t="n">
-        <v>0.3082</v>
+        <v>0.3075</v>
       </c>
       <c r="G146" t="n">
-        <v>194.0</v>
+        <v>197.0</v>
       </c>
       <c r="H146" t="n">
-        <v>415509.0</v>
+        <v>417009.0</v>
       </c>
       <c r="I146" t="n">
-        <v>2748540.0</v>
+        <v>2758440.0</v>
       </c>
       <c r="J146" t="n">
         <v>2694812.0</v>
       </c>
       <c r="K146" t="n">
-        <v>174.0</v>
+        <v>176.0</v>
       </c>
       <c r="L146" t="e">
         <v>#N/A</v>
       </c>
       <c r="M146" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="s">
+        <v>158</v>
+      </c>
+      <c r="B147" t="n">
+        <v>474608.0</v>
+      </c>
+      <c r="C147" t="n">
+        <v>1.49332394E8</v>
+      </c>
+      <c r="D147" t="n">
+        <v>161034.0</v>
+      </c>
+      <c r="E147" t="n">
+        <v>3.2234158E7</v>
+      </c>
+      <c r="F147" t="n">
+        <v>0.3393</v>
+      </c>
+      <c r="G147" t="n">
+        <v>171.0</v>
+      </c>
+      <c r="H147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L147" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M147" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="s">
+        <v>159</v>
+      </c>
+      <c r="B148" t="n">
+        <v>418231.0</v>
+      </c>
+      <c r="C148" t="n">
+        <v>1.49750625E8</v>
+      </c>
+      <c r="D148" t="n">
+        <v>165754.0</v>
+      </c>
+      <c r="E148" t="n">
+        <v>3.2399912E7</v>
+      </c>
+      <c r="F148" t="n">
+        <v>0.3963</v>
+      </c>
+      <c r="G148" t="n">
+        <v>170.0</v>
+      </c>
+      <c r="H148" t="n">
+        <v>8600.0</v>
+      </c>
+      <c r="I148" t="n">
+        <v>52800.0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>28300.0</v>
+      </c>
+      <c r="K148" t="n">
+        <v>9.0</v>
+      </c>
+      <c r="L148" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M148" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="s">
+        <v>160</v>
+      </c>
+      <c r="B149" t="n">
+        <v>309570.0</v>
+      </c>
+      <c r="C149" t="n">
+        <v>1.50060195E8</v>
+      </c>
+      <c r="D149" t="n">
+        <v>110775.0</v>
+      </c>
+      <c r="E149" t="n">
+        <v>3.2510687E7</v>
+      </c>
+      <c r="F149" t="n">
+        <v>0.3578</v>
+      </c>
+      <c r="G149" t="n">
+        <v>188.0</v>
+      </c>
+      <c r="H149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L149" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M149" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="s">
+        <v>161</v>
+      </c>
+      <c r="B150" t="n">
+        <v>355995.0</v>
+      </c>
+      <c r="C150" t="n">
+        <v>1.5041619E8</v>
+      </c>
+      <c r="D150" t="n">
+        <v>95653.0</v>
+      </c>
+      <c r="E150" t="n">
+        <v>3.260634E7</v>
+      </c>
+      <c r="F150" t="n">
+        <v>0.2687</v>
+      </c>
+      <c r="G150" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L150" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M150" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
+        <v>162</v>
+      </c>
+      <c r="B151" t="n">
+        <v>326858.0</v>
+      </c>
+      <c r="C151" t="n">
+        <v>1.50743048E8</v>
+      </c>
+      <c r="D151" t="n">
+        <v>65202.0</v>
+      </c>
+      <c r="E151" t="n">
+        <v>3.2671542E7</v>
+      </c>
+      <c r="F151" t="n">
+        <v>0.1995</v>
+      </c>
+      <c r="G151" t="n">
+        <v>179.0</v>
+      </c>
+      <c r="H151" t="n">
+        <v>392677.0</v>
+      </c>
+      <c r="I151" t="n">
+        <v>2603722.0</v>
+      </c>
+      <c r="J151" t="n">
+        <v>2563972.0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>166.0</v>
+      </c>
+      <c r="L151" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M151" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>date</t>
   </si>
@@ -501,6 +501,12 @@
   </si>
   <si>
     <t>2023-W2</t>
+  </si>
+  <si>
+    <t>2023-W3</t>
+  </si>
+  <si>
+    <t>2023-W4</t>
   </si>
 </sst>
 </file>
@@ -6624,19 +6630,19 @@
         <v>160</v>
       </c>
       <c r="B149" t="n">
-        <v>309570.0</v>
+        <v>309850.0</v>
       </c>
       <c r="C149" t="n">
-        <v>1.50060195E8</v>
+        <v>1.50060475E8</v>
       </c>
       <c r="D149" t="n">
-        <v>110775.0</v>
+        <v>110631.0</v>
       </c>
       <c r="E149" t="n">
-        <v>3.2510687E7</v>
+        <v>3.2510543E7</v>
       </c>
       <c r="F149" t="n">
-        <v>0.3578</v>
+        <v>0.357</v>
       </c>
       <c r="G149" t="n">
         <v>188.0</v>
@@ -6668,13 +6674,13 @@
         <v>355995.0</v>
       </c>
       <c r="C150" t="n">
-        <v>1.5041619E8</v>
+        <v>1.5041647E8</v>
       </c>
       <c r="D150" t="n">
         <v>95653.0</v>
       </c>
       <c r="E150" t="n">
-        <v>3.260634E7</v>
+        <v>3.2606196E7</v>
       </c>
       <c r="F150" t="n">
         <v>0.2687</v>
@@ -6709,13 +6715,13 @@
         <v>326858.0</v>
       </c>
       <c r="C151" t="n">
-        <v>1.50743048E8</v>
+        <v>1.50743328E8</v>
       </c>
       <c r="D151" t="n">
         <v>65202.0</v>
       </c>
       <c r="E151" t="n">
-        <v>3.2671542E7</v>
+        <v>3.2671398E7</v>
       </c>
       <c r="F151" t="n">
         <v>0.1995</v>
@@ -6739,6 +6745,88 @@
         <v>#N/A</v>
       </c>
       <c r="M151" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="s">
+        <v>163</v>
+      </c>
+      <c r="B152" t="n">
+        <v>292132.0</v>
+      </c>
+      <c r="C152" t="n">
+        <v>1.5103546E8</v>
+      </c>
+      <c r="D152" t="n">
+        <v>50230.0</v>
+      </c>
+      <c r="E152" t="n">
+        <v>3.2721628E7</v>
+      </c>
+      <c r="F152" t="n">
+        <v>0.1719</v>
+      </c>
+      <c r="G152" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="I152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L152" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M152" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="s">
+        <v>164</v>
+      </c>
+      <c r="B153" t="n">
+        <v>309248.0</v>
+      </c>
+      <c r="C153" t="n">
+        <v>1.51344708E8</v>
+      </c>
+      <c r="D153" t="n">
+        <v>59787.0</v>
+      </c>
+      <c r="E153" t="n">
+        <v>3.2781415E7</v>
+      </c>
+      <c r="F153" t="n">
+        <v>0.1933</v>
+      </c>
+      <c r="G153" t="n">
+        <v>181.0</v>
+      </c>
+      <c r="H153" t="n">
+        <v>391727.0</v>
+      </c>
+      <c r="I153" t="n">
+        <v>2575172.0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>2517232.0</v>
+      </c>
+      <c r="K153" t="n">
+        <v>163.0</v>
+      </c>
+      <c r="L153" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M153" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>date</t>
   </si>
@@ -507,6 +507,12 @@
   </si>
   <si>
     <t>2023-W4</t>
+  </si>
+  <si>
+    <t>2023-W5</t>
+  </si>
+  <si>
+    <t>2023-W6</t>
   </si>
 </sst>
 </file>
@@ -6830,6 +6836,88 @@
         <v>#N/A</v>
       </c>
     </row>
+    <row r="154">
+      <c r="A154" t="s">
+        <v>165</v>
+      </c>
+      <c r="B154" t="n">
+        <v>151385.0</v>
+      </c>
+      <c r="C154" t="n">
+        <v>1.51496093E8</v>
+      </c>
+      <c r="D154" t="n">
+        <v>26514.0</v>
+      </c>
+      <c r="E154" t="n">
+        <v>3.2807929E7</v>
+      </c>
+      <c r="F154" t="n">
+        <v>0.1751428477061796</v>
+      </c>
+      <c r="G154" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L154" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M154" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" t="n">
+        <v>157898.0</v>
+      </c>
+      <c r="C155" t="n">
+        <v>1.51653991E8</v>
+      </c>
+      <c r="D155" t="n">
+        <v>30225.0</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.2838154E7</v>
+      </c>
+      <c r="F155" t="n">
+        <v>0.19142104396509138</v>
+      </c>
+      <c r="G155" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L155" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>date</t>
   </si>
@@ -525,6 +525,12 @@
   </si>
   <si>
     <t>2023-W10</t>
+  </si>
+  <si>
+    <t>2023-W11</t>
+  </si>
+  <si>
+    <t>2023-W12</t>
   </si>
 </sst>
 </file>
@@ -6935,19 +6941,19 @@
         <v>167</v>
       </c>
       <c r="B156" t="n">
-        <v>156320.0</v>
+        <v>156336.0</v>
       </c>
       <c r="C156" t="n">
-        <v>1.51810859E8</v>
+        <v>1.51810875E8</v>
       </c>
       <c r="D156" t="n">
-        <v>32866.0</v>
+        <v>32885.0</v>
       </c>
       <c r="E156" t="n">
-        <v>3.2870246E7</v>
+        <v>3.2870265E7</v>
       </c>
       <c r="F156" t="n">
-        <v>0.2102482088024565</v>
+        <v>0.21034822433732472</v>
       </c>
       <c r="G156" t="n">
         <v>72.0</v>
@@ -6976,19 +6982,19 @@
         <v>168</v>
       </c>
       <c r="B157" t="n">
-        <v>156631.0</v>
+        <v>156863.0</v>
       </c>
       <c r="C157" t="n">
-        <v>1.5196749E8</v>
+        <v>1.51967738E8</v>
       </c>
       <c r="D157" t="n">
-        <v>39572.0</v>
+        <v>39694.0</v>
       </c>
       <c r="E157" t="n">
-        <v>3.2909818E7</v>
+        <v>3.2909959E7</v>
       </c>
       <c r="F157" t="n">
-        <v>0.25264475103906636</v>
+        <v>0.25304883879563694</v>
       </c>
       <c r="G157" t="n">
         <v>72.0</v>
@@ -7017,22 +7023,22 @@
         <v>169</v>
       </c>
       <c r="B158" t="n">
-        <v>107585.0</v>
+        <v>108036.0</v>
       </c>
       <c r="C158" t="n">
-        <v>1.52075075E8</v>
+        <v>1.52075774E8</v>
       </c>
       <c r="D158" t="n">
-        <v>29255.0</v>
+        <v>29421.0</v>
       </c>
       <c r="E158" t="n">
-        <v>3.2939073E7</v>
+        <v>3.293938E7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.27192452479434864</v>
+        <v>0.2723258913695435</v>
       </c>
       <c r="G158" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="H158" t="e">
         <v>#N/A</v>
@@ -7058,22 +7064,22 @@
         <v>170</v>
       </c>
       <c r="B159" t="n">
-        <v>56506.0</v>
+        <v>56415.0</v>
       </c>
       <c r="C159" t="n">
-        <v>1.52131581E8</v>
+        <v>1.52132189E8</v>
       </c>
       <c r="D159" t="n">
-        <v>17856.0</v>
+        <v>17614.0</v>
       </c>
       <c r="E159" t="n">
-        <v>3.2956929E7</v>
+        <v>3.2956994E7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.31600184051251196</v>
+        <v>0.3122219267925197</v>
       </c>
       <c r="G159" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="H159" t="e">
         <v>#N/A</v>
@@ -7091,6 +7097,88 @@
         <v>#N/A</v>
       </c>
       <c r="M159" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="s">
+        <v>171</v>
+      </c>
+      <c r="B160" t="n">
+        <v>54080.0</v>
+      </c>
+      <c r="C160" t="n">
+        <v>1.52186269E8</v>
+      </c>
+      <c r="D160" t="n">
+        <v>18130.0</v>
+      </c>
+      <c r="E160" t="n">
+        <v>3.2975124E7</v>
+      </c>
+      <c r="F160" t="n">
+        <v>0.3352440828402367</v>
+      </c>
+      <c r="G160" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="H160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L160" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M160" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
+        <v>172</v>
+      </c>
+      <c r="B161" t="n">
+        <v>47813.0</v>
+      </c>
+      <c r="C161" t="n">
+        <v>1.52234082E8</v>
+      </c>
+      <c r="D161" t="n">
+        <v>15385.0</v>
+      </c>
+      <c r="E161" t="n">
+        <v>3.2990509E7</v>
+      </c>
+      <c r="F161" t="n">
+        <v>0.321774412816598</v>
+      </c>
+      <c r="G161" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="H161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L161" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M161" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>date</t>
   </si>
@@ -531,6 +531,12 @@
   </si>
   <si>
     <t>2023-W12</t>
+  </si>
+  <si>
+    <t>2023-W13</t>
+  </si>
+  <si>
+    <t>2023-W14</t>
   </si>
 </sst>
 </file>
@@ -7023,19 +7029,19 @@
         <v>169</v>
       </c>
       <c r="B158" t="n">
-        <v>108036.0</v>
+        <v>107951.0</v>
       </c>
       <c r="C158" t="n">
-        <v>1.52075774E8</v>
+        <v>1.52075689E8</v>
       </c>
       <c r="D158" t="n">
-        <v>29421.0</v>
+        <v>29389.0</v>
       </c>
       <c r="E158" t="n">
-        <v>3.293938E7</v>
+        <v>3.2939348E7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.2723258913695435</v>
+        <v>0.27224388843086217</v>
       </c>
       <c r="G158" t="n">
         <v>72.0</v>
@@ -7064,19 +7070,19 @@
         <v>170</v>
       </c>
       <c r="B159" t="n">
-        <v>56415.0</v>
+        <v>56222.0</v>
       </c>
       <c r="C159" t="n">
-        <v>1.52132189E8</v>
+        <v>1.52131911E8</v>
       </c>
       <c r="D159" t="n">
-        <v>17614.0</v>
+        <v>17437.0</v>
       </c>
       <c r="E159" t="n">
-        <v>3.2956994E7</v>
+        <v>3.2956785E7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3122219267925197</v>
+        <v>0.3101454946462239</v>
       </c>
       <c r="G159" t="n">
         <v>72.0</v>
@@ -7105,19 +7111,19 @@
         <v>171</v>
       </c>
       <c r="B160" t="n">
-        <v>54080.0</v>
+        <v>53687.0</v>
       </c>
       <c r="C160" t="n">
-        <v>1.52186269E8</v>
+        <v>1.52185598E8</v>
       </c>
       <c r="D160" t="n">
-        <v>18130.0</v>
+        <v>17750.0</v>
       </c>
       <c r="E160" t="n">
-        <v>3.2975124E7</v>
+        <v>3.2974535E7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3352440828402367</v>
+        <v>0.3306200756235215</v>
       </c>
       <c r="G160" t="n">
         <v>72.0</v>
@@ -7146,19 +7152,19 @@
         <v>172</v>
       </c>
       <c r="B161" t="n">
-        <v>47813.0</v>
+        <v>47548.0</v>
       </c>
       <c r="C161" t="n">
-        <v>1.52234082E8</v>
+        <v>1.52233146E8</v>
       </c>
       <c r="D161" t="n">
-        <v>15385.0</v>
+        <v>14989.0</v>
       </c>
       <c r="E161" t="n">
-        <v>3.2990509E7</v>
+        <v>3.2989524E7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.321774412816598</v>
+        <v>0.3152393370909397</v>
       </c>
       <c r="G161" t="n">
         <v>72.0</v>
@@ -7179,6 +7185,88 @@
         <v>#N/A</v>
       </c>
       <c r="M161" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="s">
+        <v>173</v>
+      </c>
+      <c r="B162" t="n">
+        <v>39747.0</v>
+      </c>
+      <c r="C162" t="n">
+        <v>1.52272893E8</v>
+      </c>
+      <c r="D162" t="n">
+        <v>11771.0</v>
+      </c>
+      <c r="E162" t="n">
+        <v>3.3001295E7</v>
+      </c>
+      <c r="F162" t="n">
+        <v>0.2961481369663119</v>
+      </c>
+      <c r="G162" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L162" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M162" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
+        <v>174</v>
+      </c>
+      <c r="B163" t="n">
+        <v>5002.0</v>
+      </c>
+      <c r="C163" t="n">
+        <v>1.52277895E8</v>
+      </c>
+      <c r="D163" t="n">
+        <v>1612.0</v>
+      </c>
+      <c r="E163" t="n">
+        <v>3.3002907E7</v>
+      </c>
+      <c r="F163" t="n">
+        <v>0.32227109156337463</v>
+      </c>
+      <c r="G163" t="n">
+        <v>56.0</v>
+      </c>
+      <c r="H163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L163" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M163" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -7029,19 +7029,19 @@
         <v>169</v>
       </c>
       <c r="B158" t="n">
-        <v>107951.0</v>
+        <v>108074.0</v>
       </c>
       <c r="C158" t="n">
-        <v>1.52075689E8</v>
+        <v>1.52075812E8</v>
       </c>
       <c r="D158" t="n">
-        <v>29389.0</v>
+        <v>29499.0</v>
       </c>
       <c r="E158" t="n">
-        <v>3.2939348E7</v>
+        <v>3.2939458E7</v>
       </c>
       <c r="F158" t="n">
-        <v>0.27224388843086217</v>
+        <v>0.272951866313822</v>
       </c>
       <c r="G158" t="n">
         <v>72.0</v>
@@ -7070,19 +7070,19 @@
         <v>170</v>
       </c>
       <c r="B159" t="n">
-        <v>56222.0</v>
+        <v>56258.0</v>
       </c>
       <c r="C159" t="n">
-        <v>1.52131911E8</v>
+        <v>1.5213207E8</v>
       </c>
       <c r="D159" t="n">
-        <v>17437.0</v>
+        <v>17466.0</v>
       </c>
       <c r="E159" t="n">
-        <v>3.2956785E7</v>
+        <v>3.2956924E7</v>
       </c>
       <c r="F159" t="n">
-        <v>0.3101454946462239</v>
+        <v>0.31046251199829356</v>
       </c>
       <c r="G159" t="n">
         <v>72.0</v>
@@ -7111,19 +7111,19 @@
         <v>171</v>
       </c>
       <c r="B160" t="n">
-        <v>53687.0</v>
+        <v>53620.0</v>
       </c>
       <c r="C160" t="n">
-        <v>1.52185598E8</v>
+        <v>1.5218569E8</v>
       </c>
       <c r="D160" t="n">
-        <v>17750.0</v>
+        <v>17681.0</v>
       </c>
       <c r="E160" t="n">
-        <v>3.2974535E7</v>
+        <v>3.2974605E7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.3306200756235215</v>
+        <v>0.32974636329727713</v>
       </c>
       <c r="G160" t="n">
         <v>72.0</v>
@@ -7152,19 +7152,19 @@
         <v>172</v>
       </c>
       <c r="B161" t="n">
-        <v>47548.0</v>
+        <v>47473.0</v>
       </c>
       <c r="C161" t="n">
-        <v>1.52233146E8</v>
+        <v>1.52233163E8</v>
       </c>
       <c r="D161" t="n">
-        <v>14989.0</v>
+        <v>14854.0</v>
       </c>
       <c r="E161" t="n">
-        <v>3.2989524E7</v>
+        <v>3.2989459E7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3152393370909397</v>
+        <v>0.3128936448086281</v>
       </c>
       <c r="G161" t="n">
         <v>72.0</v>
@@ -7193,22 +7193,22 @@
         <v>173</v>
       </c>
       <c r="B162" t="n">
-        <v>39747.0</v>
+        <v>40182.0</v>
       </c>
       <c r="C162" t="n">
-        <v>1.52272893E8</v>
+        <v>1.52273345E8</v>
       </c>
       <c r="D162" t="n">
-        <v>11771.0</v>
+        <v>11520.0</v>
       </c>
       <c r="E162" t="n">
-        <v>3.3001295E7</v>
+        <v>3.3000979E7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.2961481369663119</v>
+        <v>0.28669553531431985</v>
       </c>
       <c r="G162" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="H162" t="e">
         <v>#N/A</v>
@@ -7234,22 +7234,22 @@
         <v>174</v>
       </c>
       <c r="B163" t="n">
-        <v>5002.0</v>
+        <v>26837.0</v>
       </c>
       <c r="C163" t="n">
-        <v>1.52277895E8</v>
+        <v>1.52300182E8</v>
       </c>
       <c r="D163" t="n">
-        <v>1612.0</v>
+        <v>7187.0</v>
       </c>
       <c r="E163" t="n">
-        <v>3.3002907E7</v>
+        <v>3.3008166E7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.32227109156337463</v>
+        <v>0.2678019152662369</v>
       </c>
       <c r="G163" t="n">
-        <v>56.0</v>
+        <v>71.0</v>
       </c>
       <c r="H163" t="e">
         <v>#N/A</v>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>date</t>
   </si>
@@ -537,6 +537,12 @@
   </si>
   <si>
     <t>2023-W14</t>
+  </si>
+  <si>
+    <t>2023-W15</t>
+  </si>
+  <si>
+    <t>2023-W16</t>
   </si>
 </sst>
 </file>
@@ -7111,19 +7117,19 @@
         <v>171</v>
       </c>
       <c r="B160" t="n">
-        <v>53620.0</v>
+        <v>53740.0</v>
       </c>
       <c r="C160" t="n">
-        <v>1.5218569E8</v>
+        <v>1.5218581E8</v>
       </c>
       <c r="D160" t="n">
-        <v>17681.0</v>
+        <v>17692.0</v>
       </c>
       <c r="E160" t="n">
-        <v>3.2974605E7</v>
+        <v>3.2974616E7</v>
       </c>
       <c r="F160" t="n">
-        <v>0.32974636329727713</v>
+        <v>0.32921473762560477</v>
       </c>
       <c r="G160" t="n">
         <v>72.0</v>
@@ -7152,19 +7158,19 @@
         <v>172</v>
       </c>
       <c r="B161" t="n">
-        <v>47473.0</v>
+        <v>47557.0</v>
       </c>
       <c r="C161" t="n">
-        <v>1.52233163E8</v>
+        <v>1.52233367E8</v>
       </c>
       <c r="D161" t="n">
-        <v>14854.0</v>
+        <v>14836.0</v>
       </c>
       <c r="E161" t="n">
-        <v>3.2989459E7</v>
+        <v>3.2989452E7</v>
       </c>
       <c r="F161" t="n">
-        <v>0.3128936448086281</v>
+        <v>0.3119624871207183</v>
       </c>
       <c r="G161" t="n">
         <v>72.0</v>
@@ -7193,19 +7199,19 @@
         <v>173</v>
       </c>
       <c r="B162" t="n">
-        <v>40182.0</v>
+        <v>40167.0</v>
       </c>
       <c r="C162" t="n">
-        <v>1.52273345E8</v>
+        <v>1.52273534E8</v>
       </c>
       <c r="D162" t="n">
-        <v>11520.0</v>
+        <v>11475.0</v>
       </c>
       <c r="E162" t="n">
-        <v>3.3000979E7</v>
+        <v>3.3000927E7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.28669553531431985</v>
+        <v>0.2856822764956307</v>
       </c>
       <c r="G162" t="n">
         <v>72.0</v>
@@ -7234,19 +7240,19 @@
         <v>174</v>
       </c>
       <c r="B163" t="n">
-        <v>26837.0</v>
+        <v>26912.0</v>
       </c>
       <c r="C163" t="n">
-        <v>1.52300182E8</v>
+        <v>1.52300446E8</v>
       </c>
       <c r="D163" t="n">
-        <v>7187.0</v>
+        <v>7130.0</v>
       </c>
       <c r="E163" t="n">
-        <v>3.3008166E7</v>
+        <v>3.3008057E7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2678019152662369</v>
+        <v>0.2649375743162901</v>
       </c>
       <c r="G163" t="n">
         <v>71.0</v>
@@ -7267,6 +7273,88 @@
         <v>#N/A</v>
       </c>
       <c r="M163" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="s">
+        <v>175</v>
+      </c>
+      <c r="B164" t="n">
+        <v>23670.0</v>
+      </c>
+      <c r="C164" t="n">
+        <v>1.52324116E8</v>
+      </c>
+      <c r="D164" t="n">
+        <v>6005.0</v>
+      </c>
+      <c r="E164" t="n">
+        <v>3.3014062E7</v>
+      </c>
+      <c r="F164" t="n">
+        <v>0.2536966624419096</v>
+      </c>
+      <c r="G164" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L164" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M164" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="s">
+        <v>176</v>
+      </c>
+      <c r="B165" t="n">
+        <v>23389.0</v>
+      </c>
+      <c r="C165" t="n">
+        <v>1.52347505E8</v>
+      </c>
+      <c r="D165" t="n">
+        <v>5420.0</v>
+      </c>
+      <c r="E165" t="n">
+        <v>3.3019482E7</v>
+      </c>
+      <c r="F165" t="n">
+        <v>0.23173286587712172</v>
+      </c>
+      <c r="G165" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L165" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M165" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
   <si>
     <t>date</t>
   </si>
@@ -543,6 +543,12 @@
   </si>
   <si>
     <t>2023-W16</t>
+  </si>
+  <si>
+    <t>2023-W17</t>
+  </si>
+  <si>
+    <t>2023-W18</t>
   </si>
 </sst>
 </file>
@@ -7199,19 +7205,19 @@
         <v>173</v>
       </c>
       <c r="B162" t="n">
-        <v>40167.0</v>
+        <v>40002.0</v>
       </c>
       <c r="C162" t="n">
-        <v>1.52273534E8</v>
+        <v>1.52273369E8</v>
       </c>
       <c r="D162" t="n">
-        <v>11475.0</v>
+        <v>11320.0</v>
       </c>
       <c r="E162" t="n">
-        <v>3.3000927E7</v>
+        <v>3.3000772E7</v>
       </c>
       <c r="F162" t="n">
-        <v>0.2856822764956307</v>
+        <v>0.2829858507074646</v>
       </c>
       <c r="G162" t="n">
         <v>72.0</v>
@@ -7240,19 +7246,19 @@
         <v>174</v>
       </c>
       <c r="B163" t="n">
-        <v>26912.0</v>
+        <v>26861.0</v>
       </c>
       <c r="C163" t="n">
-        <v>1.52300446E8</v>
+        <v>1.5230023E8</v>
       </c>
       <c r="D163" t="n">
-        <v>7130.0</v>
+        <v>7079.0</v>
       </c>
       <c r="E163" t="n">
-        <v>3.3008057E7</v>
+        <v>3.3007851E7</v>
       </c>
       <c r="F163" t="n">
-        <v>0.2649375743162901</v>
+        <v>0.2635419381259074</v>
       </c>
       <c r="G163" t="n">
         <v>71.0</v>
@@ -7281,19 +7287,19 @@
         <v>175</v>
       </c>
       <c r="B164" t="n">
-        <v>23670.0</v>
+        <v>23655.0</v>
       </c>
       <c r="C164" t="n">
-        <v>1.52324116E8</v>
+        <v>1.52323885E8</v>
       </c>
       <c r="D164" t="n">
-        <v>6005.0</v>
+        <v>5969.0</v>
       </c>
       <c r="E164" t="n">
-        <v>3.3014062E7</v>
+        <v>3.301382E7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.2536966624419096</v>
+        <v>0.25233565842316635</v>
       </c>
       <c r="G164" t="n">
         <v>71.0</v>
@@ -7322,22 +7328,22 @@
         <v>176</v>
       </c>
       <c r="B165" t="n">
-        <v>23389.0</v>
+        <v>23403.0</v>
       </c>
       <c r="C165" t="n">
-        <v>1.52347505E8</v>
+        <v>1.52347288E8</v>
       </c>
       <c r="D165" t="n">
-        <v>5420.0</v>
+        <v>5333.0</v>
       </c>
       <c r="E165" t="n">
-        <v>3.3019482E7</v>
+        <v>3.3019153E7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.23173286587712172</v>
+        <v>0.22787676793573475</v>
       </c>
       <c r="G165" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="H165" t="e">
         <v>#N/A</v>
@@ -7355,6 +7361,88 @@
         <v>#N/A</v>
       </c>
       <c r="M165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
+        <v>177</v>
+      </c>
+      <c r="B166" t="n">
+        <v>20445.0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>1.52367733E8</v>
+      </c>
+      <c r="D166" t="n">
+        <v>4641.0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>3.3023794E7</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0.22699926632428466</v>
+      </c>
+      <c r="G166" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="H166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L166" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="s">
+        <v>178</v>
+      </c>
+      <c r="B167" t="n">
+        <v>15435.0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>1.52383168E8</v>
+      </c>
+      <c r="D167" t="n">
+        <v>3369.0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>3.3027163E7</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0.21827016520894071</v>
+      </c>
+      <c r="G167" t="n">
+        <v>73.0</v>
+      </c>
+      <c r="H167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L167" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M167" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
   <si>
     <t>date</t>
   </si>
@@ -549,6 +549,12 @@
   </si>
   <si>
     <t>2023-W18</t>
+  </si>
+  <si>
+    <t>2023-W19</t>
+  </si>
+  <si>
+    <t>2023-W20</t>
   </si>
 </sst>
 </file>
@@ -7287,19 +7293,19 @@
         <v>175</v>
       </c>
       <c r="B164" t="n">
-        <v>23655.0</v>
+        <v>23654.0</v>
       </c>
       <c r="C164" t="n">
-        <v>1.52323885E8</v>
+        <v>1.52323884E8</v>
       </c>
       <c r="D164" t="n">
-        <v>5969.0</v>
+        <v>5974.0</v>
       </c>
       <c r="E164" t="n">
-        <v>3.301382E7</v>
+        <v>3.3013825E7</v>
       </c>
       <c r="F164" t="n">
-        <v>0.25233565842316635</v>
+        <v>0.25255770694174345</v>
       </c>
       <c r="G164" t="n">
         <v>71.0</v>
@@ -7328,19 +7334,19 @@
         <v>176</v>
       </c>
       <c r="B165" t="n">
-        <v>23403.0</v>
+        <v>23419.0</v>
       </c>
       <c r="C165" t="n">
-        <v>1.52347288E8</v>
+        <v>1.52347303E8</v>
       </c>
       <c r="D165" t="n">
-        <v>5333.0</v>
+        <v>5355.0</v>
       </c>
       <c r="E165" t="n">
-        <v>3.3019153E7</v>
+        <v>3.301918E7</v>
       </c>
       <c r="F165" t="n">
-        <v>0.22787676793573475</v>
+        <v>0.22866048934625732</v>
       </c>
       <c r="G165" t="n">
         <v>72.0</v>
@@ -7369,19 +7375,19 @@
         <v>177</v>
       </c>
       <c r="B166" t="n">
-        <v>20445.0</v>
+        <v>20461.0</v>
       </c>
       <c r="C166" t="n">
-        <v>1.52367733E8</v>
+        <v>1.52367764E8</v>
       </c>
       <c r="D166" t="n">
-        <v>4641.0</v>
+        <v>4644.0</v>
       </c>
       <c r="E166" t="n">
-        <v>3.3023794E7</v>
+        <v>3.3023824E7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.22699926632428466</v>
+        <v>0.22696837886711305</v>
       </c>
       <c r="G166" t="n">
         <v>72.0</v>
@@ -7410,22 +7416,22 @@
         <v>178</v>
       </c>
       <c r="B167" t="n">
-        <v>15435.0</v>
+        <v>16023.0</v>
       </c>
       <c r="C167" t="n">
-        <v>1.52383168E8</v>
+        <v>1.52383787E8</v>
       </c>
       <c r="D167" t="n">
-        <v>3369.0</v>
+        <v>3329.0</v>
       </c>
       <c r="E167" t="n">
-        <v>3.3027163E7</v>
+        <v>3.3027153E7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.21827016520894071</v>
+        <v>0.20776383948074642</v>
       </c>
       <c r="G167" t="n">
-        <v>73.0</v>
+        <v>72.0</v>
       </c>
       <c r="H167" t="e">
         <v>#N/A</v>
@@ -7443,6 +7449,88 @@
         <v>#N/A</v>
       </c>
       <c r="M167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="s">
+        <v>179</v>
+      </c>
+      <c r="B168" t="n">
+        <v>14703.0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>1.5239849E8</v>
+      </c>
+      <c r="D168" t="n">
+        <v>2875.0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>3.3030028E7</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0.1955383255118003</v>
+      </c>
+      <c r="G168" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H168" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I168" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J168" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K168" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L168" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M168" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="s">
+        <v>180</v>
+      </c>
+      <c r="B169" t="n">
+        <v>10793.0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.52409283E8</v>
+      </c>
+      <c r="D169" t="n">
+        <v>2050.0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>3.3032078E7</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0.1899379227276939</v>
+      </c>
+      <c r="G169" t="n">
+        <v>70.0</v>
+      </c>
+      <c r="H169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M169" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
   <si>
     <t>date</t>
   </si>
@@ -555,6 +555,12 @@
   </si>
   <si>
     <t>2023-W20</t>
+  </si>
+  <si>
+    <t>2023-W21</t>
+  </si>
+  <si>
+    <t>2023-W22</t>
   </si>
 </sst>
 </file>
@@ -7375,19 +7381,19 @@
         <v>177</v>
       </c>
       <c r="B166" t="n">
-        <v>20461.0</v>
+        <v>20456.0</v>
       </c>
       <c r="C166" t="n">
-        <v>1.52367764E8</v>
+        <v>1.52367759E8</v>
       </c>
       <c r="D166" t="n">
-        <v>4644.0</v>
+        <v>4641.0</v>
       </c>
       <c r="E166" t="n">
-        <v>3.3023824E7</v>
+        <v>3.3023821E7</v>
       </c>
       <c r="F166" t="n">
-        <v>0.22696837886711305</v>
+        <v>0.2268771998435667</v>
       </c>
       <c r="G166" t="n">
         <v>72.0</v>
@@ -7416,19 +7422,19 @@
         <v>178</v>
       </c>
       <c r="B167" t="n">
-        <v>16023.0</v>
+        <v>16018.0</v>
       </c>
       <c r="C167" t="n">
-        <v>1.52383787E8</v>
+        <v>1.52383777E8</v>
       </c>
       <c r="D167" t="n">
-        <v>3329.0</v>
+        <v>3328.0</v>
       </c>
       <c r="E167" t="n">
-        <v>3.3027153E7</v>
+        <v>3.3027149E7</v>
       </c>
       <c r="F167" t="n">
-        <v>0.20776383948074642</v>
+        <v>0.20776626295417655</v>
       </c>
       <c r="G167" t="n">
         <v>72.0</v>
@@ -7457,19 +7463,19 @@
         <v>179</v>
       </c>
       <c r="B168" t="n">
-        <v>14703.0</v>
+        <v>14772.0</v>
       </c>
       <c r="C168" t="n">
-        <v>1.5239849E8</v>
+        <v>1.52398549E8</v>
       </c>
       <c r="D168" t="n">
-        <v>2875.0</v>
+        <v>2871.0</v>
       </c>
       <c r="E168" t="n">
-        <v>3.3030028E7</v>
+        <v>3.303002E7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.1955383255118003</v>
+        <v>0.19435418359057677</v>
       </c>
       <c r="G168" t="n">
         <v>71.0</v>
@@ -7498,39 +7504,121 @@
         <v>180</v>
       </c>
       <c r="B169" t="n">
-        <v>10793.0</v>
+        <v>10700.0</v>
       </c>
       <c r="C169" t="n">
-        <v>1.52409283E8</v>
+        <v>1.52409249E8</v>
       </c>
       <c r="D169" t="n">
-        <v>2050.0</v>
+        <v>2045.0</v>
       </c>
       <c r="E169" t="n">
-        <v>3.3032078E7</v>
+        <v>3.3032065E7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1899379227276939</v>
+        <v>0.1911214953271028</v>
       </c>
       <c r="G169" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L169" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M169" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
+        <v>181</v>
+      </c>
+      <c r="B170" t="n">
+        <v>10783.0</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.52420032E8</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1924.0</v>
+      </c>
+      <c r="E170" t="n">
+        <v>3.3033989E7</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.178429008624687</v>
+      </c>
+      <c r="G170" t="n">
+        <v>69.0</v>
+      </c>
+      <c r="H170" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I170" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J170" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K170" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L170" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M170" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="s">
+        <v>182</v>
+      </c>
+      <c r="B171" t="n">
+        <v>8643.0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.52428675E8</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1281.0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>3.303527E7</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0.14821242624088857</v>
+      </c>
+      <c r="G171" t="n">
         <v>70.0</v>
       </c>
-      <c r="H169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="I169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="J169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="K169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="L169" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="M169" t="e">
+      <c r="H171" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I171" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J171" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K171" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L171" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M171" t="e">
         <v>#N/A</v>
       </c>
     </row>

--- a/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
+++ b/SARS-CoV-2-PCR-Testungen_in_Deutschland.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>date</t>
   </si>
@@ -561,6 +561,12 @@
   </si>
   <si>
     <t>2023-W22</t>
+  </si>
+  <si>
+    <t>2023-W23</t>
+  </si>
+  <si>
+    <t>2023-W24</t>
   </si>
 </sst>
 </file>
@@ -7463,19 +7469,19 @@
         <v>179</v>
       </c>
       <c r="B168" t="n">
-        <v>14772.0</v>
+        <v>14957.0</v>
       </c>
       <c r="C168" t="n">
-        <v>1.52398549E8</v>
+        <v>1.52398734E8</v>
       </c>
       <c r="D168" t="n">
-        <v>2871.0</v>
+        <v>2887.0</v>
       </c>
       <c r="E168" t="n">
-        <v>3.303002E7</v>
+        <v>3.3030036E7</v>
       </c>
       <c r="F168" t="n">
-        <v>0.19435418359057677</v>
+        <v>0.1930199906398342</v>
       </c>
       <c r="G168" t="n">
         <v>71.0</v>
@@ -7504,22 +7510,22 @@
         <v>180</v>
       </c>
       <c r="B169" t="n">
-        <v>10700.0</v>
+        <v>11669.0</v>
       </c>
       <c r="C169" t="n">
-        <v>1.52409249E8</v>
+        <v>1.52410403E8</v>
       </c>
       <c r="D169" t="n">
-        <v>2045.0</v>
+        <v>2115.0</v>
       </c>
       <c r="E169" t="n">
-        <v>3.3032065E7</v>
+        <v>3.3032151E7</v>
       </c>
       <c r="F169" t="n">
-        <v>0.1911214953271028</v>
+        <v>0.1812494643928357</v>
       </c>
       <c r="G169" t="n">
-        <v>71.0</v>
+        <v>72.0</v>
       </c>
       <c r="H169" t="e">
         <v>#N/A</v>
@@ -7545,22 +7551,22 @@
         <v>181</v>
       </c>
       <c r="B170" t="n">
-        <v>10783.0</v>
+        <v>11608.0</v>
       </c>
       <c r="C170" t="n">
-        <v>1.52420032E8</v>
+        <v>1.52422011E8</v>
       </c>
       <c r="D170" t="n">
-        <v>1924.0</v>
+        <v>1773.0</v>
       </c>
       <c r="E170" t="n">
-        <v>3.3033989E7</v>
+        <v>3.3033924E7</v>
       </c>
       <c r="F170" t="n">
-        <v>0.178429008624687</v>
+        <v>0.1527394900068918</v>
       </c>
       <c r="G170" t="n">
-        <v>69.0</v>
+        <v>70.0</v>
       </c>
       <c r="H170" t="e">
         <v>#N/A</v>
@@ -7586,22 +7592,22 @@
         <v>182</v>
       </c>
       <c r="B171" t="n">
-        <v>8643.0</v>
+        <v>9535.0</v>
       </c>
       <c r="C171" t="n">
-        <v>1.52428675E8</v>
+        <v>1.52431546E8</v>
       </c>
       <c r="D171" t="n">
-        <v>1281.0</v>
+        <v>1346.0</v>
       </c>
       <c r="E171" t="n">
         <v>3.303527E7</v>
       </c>
       <c r="F171" t="n">
-        <v>0.14821242624088857</v>
+        <v>0.14116413214472995</v>
       </c>
       <c r="G171" t="n">
-        <v>70.0</v>
+        <v>72.0</v>
       </c>
       <c r="H171" t="e">
         <v>#N/A</v>
@@ -7619,6 +7625,88 @@
         <v>#N/A</v>
       </c>
       <c r="M171" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="s">
+        <v>183</v>
+      </c>
+      <c r="B172" t="n">
+        <v>8302.0</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.52439848E8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1042.0</v>
+      </c>
+      <c r="E172" t="n">
+        <v>3.3036312E7</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.12551192483738857</v>
+      </c>
+      <c r="G172" t="n">
+        <v>72.0</v>
+      </c>
+      <c r="H172" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I172" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J172" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K172" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L172" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M172" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
+        <v>184</v>
+      </c>
+      <c r="B173" t="n">
+        <v>7691.0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>1.52447539E8</v>
+      </c>
+      <c r="D173" t="n">
+        <v>922.0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>3.3037234E7</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0.11988037966454297</v>
+      </c>
+      <c r="G173" t="n">
+        <v>71.0</v>
+      </c>
+      <c r="H173" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="I173" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J173" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="K173" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="L173" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="M173" t="e">
         <v>#N/A</v>
       </c>
     </row>
